--- a/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_era/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_era/expected_result.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>156712.76</v>
+        <v>126416.96</v>
       </c>
     </row>
     <row r="3">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-33927.61</v>
+        <v>-32168.74</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-24552.83</v>
+        <v>-28564.63</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-24956.51</v>
+        <v>-29994.23</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-49509.34</v>
+        <v>-58558.86</v>
       </c>
     </row>
     <row r="5">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-198609.51</v>
+        <v>-196582.08</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-192315.97</v>
+        <v>-188143.44</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-390925.48</v>
+        <v>-384725.52</v>
       </c>
     </row>
     <row r="6">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-29082.73</v>
+        <v>-34618.25</v>
       </c>
     </row>
     <row r="7">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>166797.17</v>
+        <v>157971.31</v>
       </c>
     </row>
     <row r="8">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>-98353.78</v>
+        <v>-116130.41</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>-81581.45</v>
+        <v>-109552.69</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-179935.23</v>
+        <v>-225683.1</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
     </row>
     <row r="3">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
     </row>
     <row r="5">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
     </row>
     <row r="7">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
     </row>
     <row r="8">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>-98721.47</v>
+        <v>-122146.94</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>-98721.47</v>
+        <v>-122146.94</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>179997.28</v>
+        <v>165690.46</v>
       </c>
     </row>
     <row r="3">
@@ -800,13 +800,13 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-27435.22</v>
+        <v>-31931.7</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-34507.96</v>
+        <v>-24965.85</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-56552.17</v>
+        <v>-54895.93</v>
       </c>
     </row>
     <row r="5">
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-196015.76</v>
+        <v>-205682.74</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-196653.19</v>
+        <v>-189920.85</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-392668.95</v>
+        <v>-395603.59</v>
       </c>
     </row>
     <row r="6">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-29847.38</v>
+        <v>-32754.63</v>
       </c>
     </row>
     <row r="7">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>211043.92</v>
+        <v>179165.33</v>
       </c>
     </row>
     <row r="8">
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>-26025.6</v>
+        <v>-137516.7</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>-89436.92</v>
+        <v>-32813.36</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-115462.52</v>
+        <v>-170330.06</v>
       </c>
     </row>
   </sheetData>
